--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni Work\Thesis\EmotionalGAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7C6AA63-E635-403C-AB48-DB5D5426384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B44F69-1FBB-451D-B207-A2C20FC23DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BD62301-DC83-4E2D-836E-859C7CFE0CEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5BD62301-DC83-4E2D-836E-859C7CFE0CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="relu50ep1e-4" sheetId="1" r:id="rId1"/>
+    <sheet name="selu50ep2e-5" sheetId="4" r:id="rId2"/>
+    <sheet name="RangerSelu50ep3e-5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>epoch</t>
   </si>
@@ -48,6 +50,12 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>learn.fit_flat_cos(50,3e-5,pct_start=0.75)</t>
+  </si>
+  <si>
+    <t>learn.fit_flat_cos(50,2e-5,pct_start=0.75)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679637E9-83AD-4832-BF80-29532B3EE927}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1125,4 +1133,1468 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C8D714-AB5C-4A1C-B14E-B8A528E130ED}">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.2868059999999999</v>
+      </c>
+      <c r="C2">
+        <v>1.27827</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.20208333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.2723599999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.2383789999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.2381260000000001</v>
+      </c>
+      <c r="C4">
+        <v>1.204353</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.2509140000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.286184</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.2213430000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.206521</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.2234849999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.185913</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1.195541</v>
+      </c>
+      <c r="C8">
+        <v>1.1738299999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1.197287</v>
+      </c>
+      <c r="C9">
+        <v>1.1770560000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1.202677</v>
+      </c>
+      <c r="C10">
+        <v>1.1711560000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.215158</v>
+      </c>
+      <c r="C11">
+        <v>1.1953780000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1.2046730000000001</v>
+      </c>
+      <c r="C12">
+        <v>1.190388</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1.2002699999999999</v>
+      </c>
+      <c r="C13">
+        <v>1.2198389999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.2176499999999999</v>
+      </c>
+      <c r="C14">
+        <v>1.225303</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1.1722220000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.18912</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.177589</v>
+      </c>
+      <c r="C16">
+        <v>1.17119</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1.1684600000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.179781</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1.149421</v>
+      </c>
+      <c r="C18">
+        <v>1.1724429999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1.158984</v>
+      </c>
+      <c r="C19">
+        <v>1.1640250000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1.149578</v>
+      </c>
+      <c r="C20">
+        <v>1.1724509999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1.1455900000000001</v>
+      </c>
+      <c r="C21">
+        <v>1.169735</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1.1574819999999999</v>
+      </c>
+      <c r="C22">
+        <v>1.15449</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1.1373819999999999</v>
+      </c>
+      <c r="C23">
+        <v>1.1736789999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1.1009169999999999</v>
+      </c>
+      <c r="C24">
+        <v>1.1729210000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.153071</v>
+      </c>
+      <c r="C25">
+        <v>1.1556230000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1.140395</v>
+      </c>
+      <c r="C26">
+        <v>1.187573</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1.1240859999999999</v>
+      </c>
+      <c r="C27">
+        <v>1.2575510000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1.1147629999999999</v>
+      </c>
+      <c r="C28">
+        <v>1.2756609999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1.130889</v>
+      </c>
+      <c r="C29">
+        <v>1.201227</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1.1375200000000001</v>
+      </c>
+      <c r="C30">
+        <v>1.172274</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1.124574</v>
+      </c>
+      <c r="C31">
+        <v>1.1833979999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.105432</v>
+      </c>
+      <c r="C32">
+        <v>1.175926</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1.0940300000000001</v>
+      </c>
+      <c r="C33">
+        <v>1.1606380000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1.097118</v>
+      </c>
+      <c r="C34">
+        <v>1.1740950000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1.086384</v>
+      </c>
+      <c r="C35">
+        <v>1.1641950000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1.070611</v>
+      </c>
+      <c r="C36">
+        <v>1.1680200000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1.091556</v>
+      </c>
+      <c r="C37">
+        <v>1.1691009999999999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1.103138</v>
+      </c>
+      <c r="C38">
+        <v>1.168598</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1.0853550000000001</v>
+      </c>
+      <c r="C39">
+        <v>1.181848</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1.0703929999999999</v>
+      </c>
+      <c r="C40">
+        <v>1.16543</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1.072554</v>
+      </c>
+      <c r="C41">
+        <v>1.187934</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1.075248</v>
+      </c>
+      <c r="C42">
+        <v>1.1784140000000001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1.0458829999999999</v>
+      </c>
+      <c r="C43">
+        <v>1.1694690000000001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1.0604690000000001</v>
+      </c>
+      <c r="C44">
+        <v>1.167119</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.983765</v>
+      </c>
+      <c r="C45">
+        <v>1.177721</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.99835799999999997</v>
+      </c>
+      <c r="C46">
+        <v>1.1771149999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.97974300000000003</v>
+      </c>
+      <c r="C47">
+        <v>1.167087</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.96244399999999997</v>
+      </c>
+      <c r="C48">
+        <v>1.1675960000000001</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.96592599999999995</v>
+      </c>
+      <c r="C49">
+        <v>1.1673720000000001</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.96950999999999998</v>
+      </c>
+      <c r="C50">
+        <v>1.166771</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.96258600000000005</v>
+      </c>
+      <c r="C51">
+        <v>1.1666160000000001</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.19305555555555554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A4776-B3AF-4D4F-A348-7A2A525B8E04}">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.2181470000000001</v>
+      </c>
+      <c r="C2">
+        <v>1.2744169999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.10694444444444444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.25057</v>
+      </c>
+      <c r="C3">
+        <v>1.208774</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.237233</v>
+      </c>
+      <c r="C4">
+        <v>1.1969129999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.1923790000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.2189430000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.2098120000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.1895420000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.2395259999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.1737489999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1.188428</v>
+      </c>
+      <c r="C8">
+        <v>1.1635329999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1.1712940000000001</v>
+      </c>
+      <c r="C9">
+        <v>1.2058869999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1.1907540000000001</v>
+      </c>
+      <c r="C10">
+        <v>1.170282</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.2170030000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.2354700000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1.196102</v>
+      </c>
+      <c r="C12">
+        <v>1.180326</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1.1820850000000001</v>
+      </c>
+      <c r="C13">
+        <v>1.1852</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.170361</v>
+      </c>
+      <c r="C14">
+        <v>1.208135</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1.1643810000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.23661</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.1640029999999999</v>
+      </c>
+      <c r="C16">
+        <v>1.1678539999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1.141937</v>
+      </c>
+      <c r="C17">
+        <v>1.2053450000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1.1624490000000001</v>
+      </c>
+      <c r="C18">
+        <v>1.196645</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1.170077</v>
+      </c>
+      <c r="C19">
+        <v>1.1726760000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1.151057</v>
+      </c>
+      <c r="C20">
+        <v>1.170318</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1.1572389999999999</v>
+      </c>
+      <c r="C21">
+        <v>1.180151</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1.141497</v>
+      </c>
+      <c r="C22">
+        <v>1.154792</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1.148306</v>
+      </c>
+      <c r="C23">
+        <v>1.194509</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1.135135</v>
+      </c>
+      <c r="C24">
+        <v>1.182483</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.1395420000000001</v>
+      </c>
+      <c r="C25">
+        <v>1.1587099999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1.107343</v>
+      </c>
+      <c r="C26">
+        <v>1.1636519999999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1.1175550000000001</v>
+      </c>
+      <c r="C27">
+        <v>1.162933</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1.1130150000000001</v>
+      </c>
+      <c r="C28">
+        <v>1.178383</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1.1300209999999999</v>
+      </c>
+      <c r="C29">
+        <v>1.1856709999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1.117597</v>
+      </c>
+      <c r="C30">
+        <v>1.169975</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1.107823</v>
+      </c>
+      <c r="C31">
+        <v>1.1707970000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.0873919999999999</v>
+      </c>
+      <c r="C32">
+        <v>1.176113</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1.0881320000000001</v>
+      </c>
+      <c r="C33">
+        <v>1.182142</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1.0757080000000001</v>
+      </c>
+      <c r="C34">
+        <v>1.200637</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1.0789409999999999</v>
+      </c>
+      <c r="C35">
+        <v>1.2066730000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1.099083</v>
+      </c>
+      <c r="C36">
+        <v>1.186723</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1.083788</v>
+      </c>
+      <c r="C37">
+        <v>1.189179</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1.0648089999999999</v>
+      </c>
+      <c r="C38">
+        <v>1.1785190000000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1.0562549999999999</v>
+      </c>
+      <c r="C39">
+        <v>1.1614059999999999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1.057598</v>
+      </c>
+      <c r="C40">
+        <v>1.1672709999999999</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1.0331649999999999</v>
+      </c>
+      <c r="C41">
+        <v>1.17004</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1.0547340000000001</v>
+      </c>
+      <c r="C42">
+        <v>1.180598</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1.0288060000000001</v>
+      </c>
+      <c r="C43">
+        <v>1.1782170000000001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1.0320199999999999</v>
+      </c>
+      <c r="C44">
+        <v>1.1835180000000001</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.99356500000000003</v>
+      </c>
+      <c r="C45">
+        <v>1.180766</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.98477099999999995</v>
+      </c>
+      <c r="C46">
+        <v>1.1607369999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.97147099999999997</v>
+      </c>
+      <c r="C47">
+        <v>1.172169</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.94804900000000003</v>
+      </c>
+      <c r="C48">
+        <v>1.16568</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.93781599999999998</v>
+      </c>
+      <c r="C49">
+        <v>1.1649039999999999</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.93116100000000002</v>
+      </c>
+      <c r="C50">
+        <v>1.165333</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="C51">
+        <v>1.165243</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>